--- a/Checkliste.xlsx
+++ b/Checkliste.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Offline Browser Checkliste vor Veröffentlichung</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Optionen der Veröffentlichung anpassen</t>
-  </si>
-  <si>
-    <t>Jahreszahl im PDF Export anpassen</t>
   </si>
   <si>
     <t>Designer Menüpunkt unsichtbar und deaktiveren</t>
@@ -216,10 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -238,6 +231,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -539,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,216 +554,208 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="4"/>
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>15</v>
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="6"/>
-    </row>
     <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="8" t="s">
+    <row r="30" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>16</v>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
